--- a/speedup-analyse-guided.xlsx
+++ b/speedup-analyse-guided.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\user\CLionProjects\fh-ppr-mandelbrot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAE10CE-F07D-4723-B8D8-B9B25B999E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F295BA10-EC2B-42A6-9B4A-83DEDF601792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1590" windowWidth="28800" windowHeight="11505" xr2:uid="{63552AAE-C5A2-4ED5-98F5-496E86A19847}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{63552AAE-C5A2-4ED5-98F5-496E86A19847}"/>
   </bookViews>
   <sheets>
     <sheet name="maxIterations = 100" sheetId="2" r:id="rId1"/>
@@ -7720,20 +7720,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE43085-64B6-48E6-B0EF-CBACF6AF9272}">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q125" sqref="Q125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="18.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -7784,7 +7784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>0.42388999999999999</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>6.6664000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>0.41645100000000002</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>6.6803100000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>0.41514600000000002</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>6.4144300000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>0.42468699999999998</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>6.5428E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>0.41858699999999999</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>6.5128099999999994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>0.41995900000000003</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>6.3786999999999996E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>0.41625600000000001</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>7.1652900000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>0.41779899999999998</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>6.9343199999999994E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>0.41842200000000002</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>6.3145099999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>0.416379</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>6.8010299999999996E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>0.421566</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>6.4521800000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>0.41528399999999999</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>6.7680299999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>0.418682</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>6.5257800000000005E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>0.41680099999999998</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>7.2640899999999994E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>0.41805599999999998</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>6.9851300000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>0.42813000000000001</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>6.8100900000000006E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>0.416771</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>6.6117800000000004E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>0.420657</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>6.8655499999999994E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>0.41661500000000001</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>6.3043199999999994E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>0.41916999999999999</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>6.2415999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>0.41382400000000003</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>6.5744899999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>0.41441</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>6.4273200000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>0.42013499999999998</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>6.5919099999999994E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>0.41527599999999998</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>6.4239400000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>0.41867500000000002</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>7.5676300000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>0.41402499999999998</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>6.2602099999999994E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>0.41722900000000002</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>6.9096199999999997E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>0.41911999999999999</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>6.6744700000000004E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>0.41890699999999997</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>6.5277199999999994E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>0.42073500000000003</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>6.8685999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>0.41361599999999998</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>6.5982899999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>0.4178</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>6.3863900000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>0.41499900000000001</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>6.5481800000000007E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>0.41610900000000001</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>6.8441399999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>0.41880000000000001</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>6.9594600000000006E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>0.41627599999999998</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>6.3075500000000007E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>0.42248400000000003</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>6.5825900000000007E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>0.41389500000000001</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>6.4328800000000005E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>0.41523199999999999</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>6.6442899999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>0.41919400000000001</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>6.5534499999999996E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>0.41713</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>6.5365300000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>0.41779500000000003</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>6.6612699999999997E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>0.41392099999999998</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>7.6255299999999998E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>0.41913400000000001</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>6.5761399999999998E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>0.41938599999999998</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>6.6584699999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>0.41483500000000001</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>6.2821600000000005E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>0.42003600000000002</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>6.2025400000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>0.41564299999999998</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>6.75978E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>0.419456</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>6.7212400000000005E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>0.41624100000000003</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>6.49478E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>0.41596899999999998</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>6.6866400000000006E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>0.419653</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>6.8636699999999995E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>0.41828500000000002</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>6.4715400000000006E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>0.422039</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>6.4607499999999998E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>0.42326799999999998</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>6.6741300000000003E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>0.42708299999999999</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>7.30045E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>0.41689300000000001</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>7.3998999999999995E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>0.415134</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>6.4277000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>0.42217500000000002</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>7.0328100000000004E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>0.415408</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>6.5690799999999994E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>0.41933900000000002</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>6.4963999999999994E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>0.41691499999999998</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>6.8305699999999997E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>0.41931000000000002</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>6.7902900000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>0.42141899999999999</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>6.7549300000000007E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>0.41856500000000002</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>6.7308599999999996E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>0.419846</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>6.2936400000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>0.41672999999999999</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>6.3527299999999995E-2</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>0.42021500000000001</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>6.5069199999999994E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>0.42056100000000002</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>6.3996399999999995E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>0.41747299999999998</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>6.4473600000000006E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>0.42272700000000002</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>6.8045300000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>0.41743000000000002</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>6.9298200000000004E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>0.42071199999999997</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>6.9855299999999995E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>0.41948099999999999</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>6.6224400000000003E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>0.41508099999999998</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>6.2867699999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>0.42354199999999997</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>6.7291699999999996E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>0.41753400000000002</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>6.5279699999999996E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>0.41951100000000002</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>6.5402799999999997E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>0.41512199999999999</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>6.3841300000000004E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>0.41932900000000001</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>6.7895999999999998E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>0.41608499999999998</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>6.6803699999999994E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>0.41965000000000002</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>6.49671E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>0.41910799999999998</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>6.81538E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>0.41759499999999999</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>6.5584900000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>0.42164800000000002</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>7.0018300000000006E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>0.41829899999999998</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>6.8806500000000007E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>0.42377300000000001</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>6.5815200000000004E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>0.41727999999999998</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>6.3471399999999997E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>0.41548099999999999</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>6.9004800000000005E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>0.42031400000000002</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>6.7502000000000006E-2</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>0.417439</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>6.5157300000000001E-2</v>
       </c>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>0.42500500000000002</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>6.9219500000000003E-2</v>
       </c>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>0.416771</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>6.4283300000000002E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>0.41619499999999998</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>7.0048200000000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>0.42429299999999998</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>6.3090800000000002E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>0.41715799999999997</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>6.6206399999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>0.42196499999999998</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>6.4928600000000003E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>0.41453499999999999</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>6.5418100000000007E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>0.429394</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>6.4298800000000003E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>0.421288</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>6.8448200000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" ht="21" x14ac:dyDescent="0.65">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>6.6565366000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
@@ -12987,18 +12987,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC6FA6B-6BAC-4EAE-AB2E-F345630EEEFF}">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="19.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -13049,7 +13049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.5790200000000001</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>0.24000299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>1.5731599999999999</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>0.232484</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>1.5722499999999999</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>0.249859</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>1.58023</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>0.22544</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1.5782499999999999</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>0.21940899999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>1.5695699999999999</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>0.22617399999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>1.5736699999999999</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>0.22562399999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>1.5748899999999999</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>0.222468</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>1.57426</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>0.223332</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>1.5718000000000001</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>0.22146199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>1.5748</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>0.229126</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>1.57552</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>0.22642799999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>1.57165</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>0.22655500000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>1.5788599999999999</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>0.21914700000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>1.583</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>0.22834499999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>1.5822499999999999</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>0.24332799999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>1.5744800000000001</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>0.22419600000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>1.5730500000000001</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>0.222632</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>1.5788599999999999</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>0.227271</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>1.57474</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>0.22803799999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>1.57294</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>0.24010500000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>1.5711299999999999</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>0.22523799999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>1.56673</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>0.225135</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>1.5646</v>
       </c>
@@ -14302,7 +14302,7 @@
         <v>0.24087800000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>1.5679399999999999</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>0.228384</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>1.5771599999999999</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>0.2233</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>1.5687599999999999</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>0.22906399999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>1.57307</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>0.23360700000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>1.57535</v>
       </c>
@@ -14552,7 +14552,7 @@
         <v>0.23370099999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>1.5674600000000001</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>0.231765</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>1.58267</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>0.22705400000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>1.57453</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>0.223997</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>1.57792</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>0.23149500000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>1.5801499999999999</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>0.24559</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>1.5767599999999999</v>
       </c>
@@ -14852,7 +14852,7 @@
         <v>0.215475</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>1.5860700000000001</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>0.22440399999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>1.5741499999999999</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>0.22645499999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>1.5735399999999999</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>0.22908000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>1.5792200000000001</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>0.23312099999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>1.5889800000000001</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>0.248667</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>1.5859300000000001</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>0.23710500000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>1.59701</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>0.220107</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>1.5884</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>0.22578100000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>1.57721</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>0.22589000000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>1.5716399999999999</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>0.22642499999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>1.57592</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>0.23613600000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>1.5766800000000001</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>0.22173599999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>1.6998</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>0.22447700000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>1.6234</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>0.22154199999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>1.58765</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>0.23774500000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>1.58891</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>0.21679899999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>1.57948</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v>0.22567699999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>1.6089599999999999</v>
       </c>
@@ -15752,7 +15752,7 @@
         <v>0.22605800000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>1.58033</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>0.22514700000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>1.5879300000000001</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>0.231378</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>1.61591</v>
       </c>
@@ -15902,7 +15902,7 @@
         <v>0.22872700000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>1.5773999999999999</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>0.22723699999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>1.59022</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>0.22727600000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>1.58934</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>0.231124</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>1.5820399999999999</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>0.227573</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>1.5783100000000001</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>0.22942000000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>1.5822499999999999</v>
       </c>
@@ -16202,7 +16202,7 @@
         <v>0.221944</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>1.5843100000000001</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>0.2283</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>1.58534</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>0.233376</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>1.5807100000000001</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>0.22614500000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>1.5745</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>0.23443</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>1.5857399999999999</v>
       </c>
@@ -16452,7 +16452,7 @@
         <v>0.23361599999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>1.57656</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>0.22072600000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>1.5677399999999999</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>0.22673199999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>1.57856</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>0.22445999999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>1.58721</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>0.223162</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>1.5821499999999999</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>0.227827</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>1.5731200000000001</v>
       </c>
@@ -16752,7 +16752,7 @@
         <v>0.221549</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>1.56636</v>
       </c>
@@ -16802,7 +16802,7 @@
         <v>0.23075000000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>1.5744800000000001</v>
       </c>
@@ -16852,7 +16852,7 @@
         <v>0.227626</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>1.59274</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>0.227161</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>1.5742499999999999</v>
       </c>
@@ -16952,7 +16952,7 @@
         <v>0.22425400000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>1.5792600000000001</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>0.219749</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>1.5703400000000001</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>0.23821300000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>1.5675600000000001</v>
       </c>
@@ -17102,7 +17102,7 @@
         <v>0.22384599999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>1.5830200000000001</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>0.232317</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>1.57683</v>
       </c>
@@ -17202,7 +17202,7 @@
         <v>0.22719600000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>1.57752</v>
       </c>
@@ -17252,7 +17252,7 @@
         <v>0.216312</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>1.5778000000000001</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>0.23253099999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>1.5892299999999999</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>0.231515</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>1.58422</v>
       </c>
@@ -17402,7 +17402,7 @@
         <v>0.22376799999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>1.57917</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>0.22317899999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>1.5843100000000001</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>0.22822100000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>1.5686500000000001</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>0.229627</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>1.57091</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>0.222994</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>1.5684100000000001</v>
       </c>
@@ -17652,7 +17652,7 @@
         <v>0.22726099999999999</v>
       </c>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>1.56938</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>0.22564699999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>1.5720499999999999</v>
       </c>
@@ -17752,7 +17752,7 @@
         <v>0.24415300000000001</v>
       </c>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>1.56714</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>0.236265</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>1.57833</v>
       </c>
@@ -17852,7 +17852,7 @@
         <v>0.230158</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>1.5689200000000001</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>0.225158</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>1.57812</v>
       </c>
@@ -17952,7 +17952,7 @@
         <v>0.22731799999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>1.56867</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>0.22680600000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>1.5708599999999999</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>0.237206</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>1.5720700000000001</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>0.22009000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" ht="21" x14ac:dyDescent="0.65">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>0.22832783999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
@@ -18252,18 +18252,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDFEBCA-3C84-4DCF-9E8E-510BA5906146}">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M121" sqref="M121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="19.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -18314,7 +18314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>3.0070999999999999</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>0.437836</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>3.0064199999999999</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>0.42531200000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>3.0050500000000002</v>
       </c>
@@ -18517,7 +18517,7 @@
         <v>0.417491</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>3.0106299999999999</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>0.42768800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>3.0119799999999999</v>
       </c>
@@ -18617,7 +18617,7 @@
         <v>0.42324099999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>3.01878</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>0.41945900000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>3.0094799999999999</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>0.45191500000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>3.0028999999999999</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>0.42292999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>3.0064000000000002</v>
       </c>
@@ -18817,7 +18817,7 @@
         <v>0.44817200000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>3.0144799999999998</v>
       </c>
@@ -18867,7 +18867,7 @@
         <v>0.416773</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>3.0215900000000002</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>0.42221199999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>3.0178400000000001</v>
       </c>
@@ -18967,7 +18967,7 @@
         <v>0.42485499999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>3.01</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>0.422205</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>3.0198299999999998</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>0.42727300000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>3.00589</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>0.449324</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>3.0156000000000001</v>
       </c>
@@ -19167,7 +19167,7 @@
         <v>0.42264699999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>3.0134699999999999</v>
       </c>
@@ -19217,7 +19217,7 @@
         <v>0.43660399999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>3.0152800000000002</v>
       </c>
@@ -19267,7 +19267,7 @@
         <v>0.42266700000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>3.0111300000000001</v>
       </c>
@@ -19317,7 +19317,7 @@
         <v>0.41647299999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>3.0061900000000001</v>
       </c>
@@ -19367,7 +19367,7 @@
         <v>0.41631600000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>3.0131100000000002</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>0.42031299999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>2.99987</v>
       </c>
@@ -19467,7 +19467,7 @@
         <v>0.42542999999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>2.9896799999999999</v>
       </c>
@@ -19517,7 +19517,7 @@
         <v>0.42356500000000002</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>2.99234</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>0.41794900000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>2.9922399999999998</v>
       </c>
@@ -19617,7 +19617,7 @@
         <v>0.41532000000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>2.9954100000000001</v>
       </c>
@@ -19667,7 +19667,7 @@
         <v>0.42595100000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>2.9830199999999998</v>
       </c>
@@ -19717,7 +19717,7 @@
         <v>0.42278900000000003</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>3.00061</v>
       </c>
@@ -19767,7 +19767,7 @@
         <v>0.425705</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>3.0169800000000002</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>0.41936699999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>3.0169299999999999</v>
       </c>
@@ -19867,7 +19867,7 @@
         <v>0.42030299999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>3.00407</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>0.41864099999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>3.0012400000000001</v>
       </c>
@@ -19967,7 +19967,7 @@
         <v>0.419124</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>3.0114999999999998</v>
       </c>
@@ -20017,7 +20017,7 @@
         <v>0.421068</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>3.0036800000000001</v>
       </c>
@@ -20067,7 +20067,7 @@
         <v>0.415827</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>3.00196</v>
       </c>
@@ -20117,7 +20117,7 @@
         <v>0.423321</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>3.0093999999999999</v>
       </c>
@@ -20167,7 +20167,7 @@
         <v>0.42286200000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>3.0095000000000001</v>
       </c>
@@ -20217,7 +20217,7 @@
         <v>0.42032000000000003</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>3.0078</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>0.409912</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>3.0043299999999999</v>
       </c>
@@ -20317,7 +20317,7 @@
         <v>0.45554499999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>3.0090599999999998</v>
       </c>
@@ -20367,7 +20367,7 @@
         <v>0.42120200000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>3.0171199999999998</v>
       </c>
@@ -20417,7 +20417,7 @@
         <v>0.42366399999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>3.0150800000000002</v>
       </c>
@@ -20467,7 +20467,7 @@
         <v>0.42835400000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>3.0095900000000002</v>
       </c>
@@ -20517,7 +20517,7 @@
         <v>0.41875400000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>3.0109599999999999</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v>0.42196899999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>3.0148299999999999</v>
       </c>
@@ -20617,7 +20617,7 @@
         <v>0.41823399999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>3.00542</v>
       </c>
@@ -20667,7 +20667,7 @@
         <v>0.427595</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>3.0131000000000001</v>
       </c>
@@ -20717,7 +20717,7 @@
         <v>0.42289100000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>3.00318</v>
       </c>
@@ -20767,7 +20767,7 @@
         <v>0.41624800000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>3.00684</v>
       </c>
@@ -20817,7 +20817,7 @@
         <v>0.42390600000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>3.02258</v>
       </c>
@@ -20867,7 +20867,7 @@
         <v>0.42148099999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>3.01309</v>
       </c>
@@ -20917,7 +20917,7 @@
         <v>0.42305300000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>3.0674800000000002</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>0.41625400000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>3.01058</v>
       </c>
@@ -21017,7 +21017,7 @@
         <v>0.41588599999999998</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>3.0172300000000001</v>
       </c>
@@ -21067,7 +21067,7 @@
         <v>0.419373</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>3.0185300000000002</v>
       </c>
@@ -21117,7 +21117,7 @@
         <v>0.42200399999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>3.0161899999999999</v>
       </c>
@@ -21167,7 +21167,7 @@
         <v>0.42982399999999998</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>3.0205299999999999</v>
       </c>
@@ -21217,7 +21217,7 @@
         <v>0.42348799999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>3.0033599999999998</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>0.41679100000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>3.0074800000000002</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>0.41914499999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>3.0076299999999998</v>
       </c>
@@ -21367,7 +21367,7 @@
         <v>0.42641499999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>3.5829800000000001</v>
       </c>
@@ -21417,7 +21417,7 @@
         <v>0.42500500000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>3.3711600000000002</v>
       </c>
@@ -21467,7 +21467,7 @@
         <v>0.459123</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>3.0114000000000001</v>
       </c>
@@ -21517,7 +21517,7 @@
         <v>0.42770000000000002</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>3.0118</v>
       </c>
@@ -21567,7 +21567,7 @@
         <v>0.42706300000000003</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>3.0028700000000002</v>
       </c>
@@ -21617,7 +21617,7 @@
         <v>0.418657</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>3.0019800000000001</v>
       </c>
@@ -21667,7 +21667,7 @@
         <v>0.42069099999999998</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>2.9967999999999999</v>
       </c>
@@ -21717,7 +21717,7 @@
         <v>0.42082199999999997</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>3.0026000000000002</v>
       </c>
@@ -21767,7 +21767,7 @@
         <v>0.42275200000000002</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>3.1201699999999999</v>
       </c>
@@ -21817,7 +21817,7 @@
         <v>0.42089900000000002</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>3.0013100000000001</v>
       </c>
@@ -21867,7 +21867,7 @@
         <v>0.424792</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>3.0885199999999999</v>
       </c>
@@ -21917,7 +21917,7 @@
         <v>0.42789100000000002</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>3.1396700000000002</v>
       </c>
@@ -21967,7 +21967,7 @@
         <v>0.41783700000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>3.14642</v>
       </c>
@@ -22017,7 +22017,7 @@
         <v>0.42762800000000001</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>3.1387100000000001</v>
       </c>
@@ -22067,7 +22067,7 @@
         <v>0.42206199999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>3.1566299999999998</v>
       </c>
@@ -22117,7 +22117,7 @@
         <v>0.42373300000000003</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>3.1519400000000002</v>
       </c>
@@ -22167,7 +22167,7 @@
         <v>0.416825</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>3.1634600000000002</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>0.43142999999999998</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>3.1673200000000001</v>
       </c>
@@ -22267,7 +22267,7 @@
         <v>0.41890100000000002</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>3.14839</v>
       </c>
@@ -22317,7 +22317,7 @@
         <v>0.41742600000000002</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>3.1594099999999998</v>
       </c>
@@ -22367,7 +22367,7 @@
         <v>0.42327900000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>3.1586699999999999</v>
       </c>
@@ -22417,7 +22417,7 @@
         <v>0.41952099999999998</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>3.15103</v>
       </c>
@@ -22467,7 +22467,7 @@
         <v>0.436168</v>
       </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>3.1375700000000002</v>
       </c>
@@ -22517,7 +22517,7 @@
         <v>0.419825</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>3.1712699999999998</v>
       </c>
@@ -22567,7 +22567,7 @@
         <v>0.41797800000000002</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>3.1627200000000002</v>
       </c>
@@ -22617,7 +22617,7 @@
         <v>0.41728199999999999</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>3.1434700000000002</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>0.44456400000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>3.1526900000000002</v>
       </c>
@@ -22717,7 +22717,7 @@
         <v>0.44595000000000001</v>
       </c>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>3.1507999999999998</v>
       </c>
@@ -22767,7 +22767,7 @@
         <v>0.426371</v>
       </c>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>3.15909</v>
       </c>
@@ -22817,7 +22817,7 @@
         <v>0.43282799999999999</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>3.0943800000000001</v>
       </c>
@@ -22867,7 +22867,7 @@
         <v>0.430336</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>3.0138600000000002</v>
       </c>
@@ -22917,7 +22917,7 @@
         <v>0.41764899999999999</v>
       </c>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>3.0139100000000001</v>
       </c>
@@ -22967,7 +22967,7 @@
         <v>0.42197499999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>3.0490200000000001</v>
       </c>
@@ -23017,7 +23017,7 @@
         <v>0.41530099999999998</v>
       </c>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>2.9965700000000002</v>
       </c>
@@ -23067,7 +23067,7 @@
         <v>0.42470000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>2.9965999999999999</v>
       </c>
@@ -23117,7 +23117,7 @@
         <v>0.42095100000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>2.9958</v>
       </c>
@@ -23167,7 +23167,7 @@
         <v>0.42344900000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>2.9945499999999998</v>
       </c>
@@ -23217,7 +23217,7 @@
         <v>0.424705</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>2.9957799999999999</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>0.42070999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>3.01058</v>
       </c>
@@ -23317,7 +23317,7 @@
         <v>0.42211500000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>3.0267599999999999</v>
       </c>
@@ -23367,7 +23367,7 @@
         <v>0.41560399999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" ht="21" x14ac:dyDescent="0.65">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>0.42423734000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
